--- a/SourceCode/vajrang/Nov 2022/Week4/purchase order/Data/Input/StateAssignments.xlsx
+++ b/SourceCode/vajrang/Nov 2022/Week4/purchase order/Data/Input/StateAssignments.xlsx
@@ -1054,24 +1054,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087EA9A4EBB32A649948753B6922F02FF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="966826dd1f698f5e178178b4dfbe6da8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="100b8fb2-c4a0-4da7-b52c-f67e170b2c14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ccc9092cb67393113f6ecb450af6d13" ns2:_="">
-    <xsd:import namespace="100b8fb2-c4a0-4da7-b52c-f67e170b2c14"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100945F32A30B2C1B4AA99B5CED8BD7E0B2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="71849d40a45ebf3ccebb1a8bc9af275c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="46c327dd-7da2-43cf-9e30-44b0ff48db1d" xmlns:ns4="35dc6b0a-e226-42df-8541-682a1f1d3423" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65abab1d52370b9bf035687f133fbc69" ns3:_="" ns4:_="">
+    <xsd:import namespace="46c327dd-7da2-43cf-9e30-44b0ff48db1d"/>
+    <xsd:import namespace="35dc6b0a-e226-42df-8541-682a1f1d3423"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1079,56 +1083,91 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="100b8fb2-c4a0-4da7-b52c-f67e170b2c14" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46c327dd-7da2-43cf-9e30-44b0ff48db1d" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="35dc6b0a-e226-42df-8541-682a1f1d3423" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1249,5 +1288,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56D5FD4-26F5-4689-84DC-36EE0DFD5DAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A387C5E-7264-4BD5-9562-3F0E71D91D99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="46c327dd-7da2-43cf-9e30-44b0ff48db1d"/>
+    <ds:schemaRef ds:uri="35dc6b0a-e226-42df-8541-682a1f1d3423"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>